--- a/Section.xlsx
+++ b/Section.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\63427\Desktop\Code\鋼床鈑\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\63427\Desktop\Code\鋼床鈑\Steeldeckgirder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E05AC47-AFF8-47DD-8709-09E4829FFC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07677DCA-565B-4011-B53A-730DB17F195C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{920B8B1C-3DCD-4DAD-80A3-FFF831C88026}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{920B8B1C-3DCD-4DAD-80A3-FFF831C88026}"/>
   </bookViews>
   <sheets>
     <sheet name="鋼床鈑" sheetId="1" r:id="rId1"/>
     <sheet name="加勁鈑" sheetId="2" r:id="rId2"/>
+    <sheet name="斷面性質" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="104">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -261,12 +262,409 @@
     <t>520,520,520,520</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Steel Girder B</t>
+  </si>
+  <si>
+    <t>STLB</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asy</t>
+  </si>
+  <si>
+    <t>Asy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asz</t>
+  </si>
+  <si>
+    <t>Asz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ixx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iyy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Izz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cym</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qyb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qzb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[mm2]</t>
+  </si>
+  <si>
+    <t>[mm2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[mm4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[mm]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TorsConst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2L</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2R</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3T</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3B</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,8 +726,46 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +775,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -403,12 +863,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -740,8 +1232,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1220,4 +1712,525 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23182204-6072-4BBA-98DB-D4A3A5250D7F}">
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A1:AK4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="10"/>
+    <col min="5" max="7" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="8.88671875" style="10"/>
+    <col min="31" max="37" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="17.25">
+      <c r="A1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="18.75">
+      <c r="A2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="14">
+        <f>鋼床鈑!A3</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="10">
+        <v>314300</v>
+      </c>
+      <c r="F3" s="10">
+        <v>126904.841</v>
+      </c>
+      <c r="G3" s="10">
+        <v>37916.5124</v>
+      </c>
+      <c r="H3" s="10">
+        <v>272446027428.66699</v>
+      </c>
+      <c r="I3" s="10">
+        <v>344686041867.96802</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1222335947709.1101</v>
+      </c>
+      <c r="K3" s="10">
+        <v>3998.5102999999999</v>
+      </c>
+      <c r="L3" s="10">
+        <v>4001.4897000000001</v>
+      </c>
+      <c r="M3" s="10">
+        <v>823.07690000000002</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1703.9231</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>28886</v>
+      </c>
+      <c r="R3" s="10">
+        <v>20700</v>
+      </c>
+      <c r="S3" s="15">
+        <f>(鋼床鈑!F3+鋼床鈑!N3+鋼床鈑!O3)*鋼床鈑!L3+(鋼床鈑!I3+鋼床鈑!N3+鋼床鈑!O3)*鋼床鈑!M3</f>
+        <v>86940</v>
+      </c>
+      <c r="T3" s="15">
+        <f>(鋼床鈑!K3)*鋼床鈑!N3+(鋼床鈑!K3)*鋼床鈑!O3</f>
+        <v>50000</v>
+      </c>
+      <c r="U3" s="15">
+        <f>4*((鋼床鈑!I3+鋼床鈑!N3/2+鋼床鈑!O3/2)*(鋼床鈑!K3+鋼床鈑!L3/2+鋼床鈑!M3/2))^2/((鋼床鈑!F3+鋼床鈑!N3/2+鋼床鈑!O3/2)/鋼床鈑!L3+(鋼床鈑!I3+鋼床鈑!N3/2+鋼床鈑!O3/2)/鋼床鈑!M3+(鋼床鈑!K3+鋼床鈑!L3/2+鋼床鈑!M3/2)/鋼床鈑!N3+(鋼床鈑!K3+鋼床鈑!L3/2+鋼床鈑!M3/2)/鋼床鈑!O3)</f>
+        <v>266002431510.86484</v>
+      </c>
+      <c r="V3" s="18">
+        <f>AH3/(K3/1000)</f>
+        <v>0.30569783644401516</v>
+      </c>
+      <c r="W3" s="18">
+        <f>AH3/(L3/1000)</f>
+        <v>0.30547022217978215</v>
+      </c>
+      <c r="X3" s="18">
+        <f>AI3/(M3/1000)</f>
+        <v>0.41877744578661852</v>
+      </c>
+      <c r="Y3" s="18">
+        <f>AI3/(N3/1000)</f>
+        <v>0.20228967015469657</v>
+      </c>
+      <c r="Z3" s="18">
+        <f>AH3/AD3</f>
+        <v>3.8890739666214125</v>
+      </c>
+      <c r="AA3" s="18">
+        <f>AI3/AD3</f>
+        <v>1.0966784660132611</v>
+      </c>
+      <c r="AB3" s="10">
+        <f>(M3+N3)/1000</f>
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="AC3" s="10">
+        <f>(K3+L3)/1000</f>
+        <v>8</v>
+      </c>
+      <c r="AD3" s="10">
+        <f>E3/1000^2</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="AE3" s="18">
+        <f>U3/(1000^4)</f>
+        <v>0.26600243151086483</v>
+      </c>
+      <c r="AF3" s="18">
+        <f>T3/1000^2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AG3" s="18">
+        <f>S3/1000^2</f>
+        <v>8.6940000000000003E-2</v>
+      </c>
+      <c r="AH3" s="10">
+        <f>J3/(1000^4)</f>
+        <v>1.22233594770911</v>
+      </c>
+      <c r="AI3" s="10">
+        <f>I3/(1000^4)</f>
+        <v>0.34468604186796803</v>
+      </c>
+      <c r="AJ3" s="6">
+        <f>AH3</f>
+        <v>1.22233594770911</v>
+      </c>
+      <c r="AK3" s="6">
+        <f>AI3</f>
+        <v>0.34468604186796803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="14">
+        <f>鋼床鈑!A4</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="10">
+        <v>385008</v>
+      </c>
+      <c r="F4" s="10">
+        <v>107767.37820000001</v>
+      </c>
+      <c r="G4" s="10">
+        <v>88159.129300000001</v>
+      </c>
+      <c r="H4" s="10">
+        <v>385578006657.36902</v>
+      </c>
+      <c r="I4" s="10">
+        <v>494112988461.61401</v>
+      </c>
+      <c r="J4" s="10">
+        <v>695388427170.32605</v>
+      </c>
+      <c r="K4" s="10">
+        <v>2424.5082000000002</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2875.4917999999998</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1006.5495</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1829.4504999999999</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>22824</v>
+      </c>
+      <c r="R4" s="10">
+        <v>19152</v>
+      </c>
+      <c r="S4" s="15">
+        <f>(鋼床鈑!F4+鋼床鈑!N4+鋼床鈑!O4)*鋼床鈑!L4+(鋼床鈑!I4+鋼床鈑!N4+鋼床鈑!O4)*鋼床鈑!M4</f>
+        <v>95040</v>
+      </c>
+      <c r="T4" s="15">
+        <f>(鋼床鈑!K4)*鋼床鈑!N4+(鋼床鈑!K4)*鋼床鈑!O4</f>
+        <v>112000</v>
+      </c>
+      <c r="U4" s="15">
+        <f>4*((鋼床鈑!I4+鋼床鈑!N4/2+鋼床鈑!O4/2)*(鋼床鈑!K4+鋼床鈑!L4/2+鋼床鈑!M4/2))^2/((鋼床鈑!F4+鋼床鈑!N4/2+鋼床鈑!O4/2)/鋼床鈑!L4+(鋼床鈑!I4+鋼床鈑!N4/2+鋼床鈑!O4/2)/鋼床鈑!M4+(鋼床鈑!K4+鋼床鈑!L4/2+鋼床鈑!M4/2)/鋼床鈑!N4+(鋼床鈑!K4+鋼床鈑!L4/2+鋼床鈑!M4/2)/鋼床鈑!O4)</f>
+        <v>378187852471.42487</v>
+      </c>
+      <c r="V4" s="18">
+        <f>AH4/(K4/1000)</f>
+        <v>0.28681628182174268</v>
+      </c>
+      <c r="W4" s="18">
+        <f>AH4/(L4/1000)</f>
+        <v>0.24183286739691834</v>
+      </c>
+      <c r="X4" s="18">
+        <f>AI4/(M4/1000)</f>
+        <v>0.49089785297356364</v>
+      </c>
+      <c r="Y4" s="18">
+        <f>AI4/(N4/1000)</f>
+        <v>0.27008819777392939</v>
+      </c>
+      <c r="Z4" s="18">
+        <f>AH4/AD4</f>
+        <v>1.8061661762101722</v>
+      </c>
+      <c r="AA4" s="18">
+        <f>AI4/AD4</f>
+        <v>1.2833836919274768</v>
+      </c>
+      <c r="AB4" s="10">
+        <f>(M4+N4)/1000</f>
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="AC4" s="10">
+        <f>(K4+L4)/1000</f>
+        <v>5.3</v>
+      </c>
+      <c r="AD4" s="10">
+        <f>E4/1000^2</f>
+        <v>0.38500800000000002</v>
+      </c>
+      <c r="AE4" s="18">
+        <f>U4/(1000^4)</f>
+        <v>0.37818785247142489</v>
+      </c>
+      <c r="AF4" s="18">
+        <f>T4/1000^2</f>
+        <v>0.112</v>
+      </c>
+      <c r="AG4" s="18">
+        <f>S4/1000^2</f>
+        <v>9.5039999999999999E-2</v>
+      </c>
+      <c r="AH4" s="10">
+        <f>J4/(1000^4)</f>
+        <v>0.69538842717032601</v>
+      </c>
+      <c r="AI4" s="10">
+        <f>I4/(1000^4)</f>
+        <v>0.494112988461614</v>
+      </c>
+      <c r="AJ4" s="6">
+        <f>AH4</f>
+        <v>0.69538842717032601</v>
+      </c>
+      <c r="AK4" s="6">
+        <f>AI4</f>
+        <v>0.494112988461614</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Section.xlsx
+++ b/Section.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\63427\Desktop\Code\鋼床鈑\Steeldeckgirder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1D2D24-BA32-49B5-8623-D5B94D3553E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="鋼床鈑"/>
-    <sheet r:id="rId2" sheetId="2" name="加勁鈑"/>
-    <sheet r:id="rId3" sheetId="3" name="斷面性質"/>
+    <sheet name="鋼床鈑" sheetId="1" r:id="rId1"/>
+    <sheet name="加勁鈑" sheetId="2" r:id="rId2"/>
+    <sheet name="斷面性質" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -79,7 +98,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -94,7 +113,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -109,7 +128,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -124,7 +143,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -139,7 +158,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -154,7 +173,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -169,7 +188,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -184,7 +203,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -202,7 +221,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -217,7 +236,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -232,7 +251,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -247,7 +266,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -262,7 +281,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -277,7 +296,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -304,7 +323,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -322,7 +341,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -337,7 +356,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -391,13 +410,10 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Microsoft JhengHei"/>
         <family val="2"/>
       </rPr>
@@ -503,57 +519,53 @@
   <si>
     <t>520,520,520,520</t>
   </si>
+  <si>
+    <t>Test_r</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>330,317.5,317.5,317.5,317.5,317.5,317.5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,324.2,324.2,324.2,324.2,324.2,324.2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>457.4,457.1,457.1,457.1,457.1,457.1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2_r</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,300,300</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,300,300,300,280</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.000000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000ff"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFff0000"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
@@ -565,23 +577,62 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="JetBrains Mono"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -593,27 +644,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9f2d0"/>
+        <fgColor rgb="FFD9F2D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcaeefb"/>
+        <fgColor rgb="FFCAEEFB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFfbe3d6"/>
+        <fgColor rgb="FFFBE3D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf2cfee"/>
+        <fgColor rgb="FFF2CFEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -651,116 +702,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -771,10 +817,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -812,71 +858,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,7 +950,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -927,11 +973,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -940,13 +986,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -956,7 +1002,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -965,7 +1011,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -974,7 +1020,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -982,10 +1028,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1050,892 +1096,823 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="33" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="32" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="32" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="33" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="33" width="47.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="33" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="33" width="41.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="33" width="27.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="33" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="33" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="33" width="33.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="17" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="33" width="41.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="33" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="33" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="33" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="8.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="57.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="51.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="57.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="25"/>
+      <c r="AB1" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="25"/>
+      <c r="AB2" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="26">
+    <row r="3" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>0</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>2280</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>2400</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>3200</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>2400</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>120</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>3200</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>120</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <v>2500</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="24">
         <v>14</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="24">
         <v>13</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="24">
         <v>10</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="24">
         <v>10</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="27" t="s">
+      <c r="V3" s="25"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="Y3" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="28"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="26">
+    <row r="4" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>0</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>1730</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>1750</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <v>2600</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>950</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>20</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <v>2600</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <v>120</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="24">
         <v>2800</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="24">
         <v>16</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="24">
         <v>20</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="24">
         <v>20</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="24">
         <v>20</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="27" t="s">
+      <c r="X4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Y4" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
+    <row r="5" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A5" s="24">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>2280</v>
+      </c>
+      <c r="E5" s="24">
+        <v>2400</v>
+      </c>
+      <c r="F5" s="24">
+        <v>3200</v>
+      </c>
+      <c r="G5" s="24">
+        <v>2400</v>
+      </c>
+      <c r="H5" s="24">
+        <v>120</v>
+      </c>
+      <c r="I5" s="24">
+        <v>3200</v>
+      </c>
+      <c r="J5" s="24">
+        <v>120</v>
+      </c>
+      <c r="K5" s="24">
+        <v>2500</v>
+      </c>
+      <c r="L5" s="24">
+        <v>14</v>
+      </c>
+      <c r="M5" s="24">
+        <v>13</v>
+      </c>
+      <c r="N5" s="24">
+        <v>10</v>
+      </c>
+      <c r="O5" s="24">
+        <v>10</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="25" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
+    <row r="6" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A6" s="24">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>830</v>
+      </c>
+      <c r="E6" s="24">
+        <v>950</v>
+      </c>
+      <c r="F6" s="24">
+        <v>2600</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1750</v>
+      </c>
+      <c r="H6" s="24">
+        <v>120</v>
+      </c>
+      <c r="I6" s="24">
+        <v>2600</v>
+      </c>
+      <c r="J6" s="24">
+        <v>20</v>
+      </c>
+      <c r="K6" s="24">
+        <v>2800</v>
+      </c>
+      <c r="L6" s="24">
+        <v>16</v>
+      </c>
+      <c r="M6" s="24">
+        <v>20</v>
+      </c>
+      <c r="N6" s="24">
+        <v>20</v>
+      </c>
+      <c r="O6" s="24">
+        <v>20</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="X6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" s="25" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
+    <row r="7" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="X7" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
+    <row r="8" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="X8" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
+    <row r="9" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="X9" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
+    <row r="10" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="X10" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
+    <row r="11" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="X11" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
+    <row r="12" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="X12" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
+    <row r="13" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="X13" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
+    <row r="14" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="X14" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
+    <row r="15" spans="1:28" ht="21" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="X15" s="28"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="21">
         <v>216</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>60</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="21">
         <v>12</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="21">
         <v>16</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="21">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>239</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>150</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>10</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="21">
         <v>19</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>213</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>200</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>16</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="21">
         <v>20</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>250</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>20</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>0</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="16" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="18" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="19" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="19" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="19" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="19" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="19" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="19" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="19" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="19" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="19" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="18" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="18" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="18" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="19" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="19" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="19" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="18" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="18" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="18" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="18" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="28.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="13.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="7.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="7.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
+    <row r="1" spans="1:37" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2017,16 +1994,16 @@
       <c r="AA1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="AF1" s="6" t="s">
@@ -2035,20 +2012,20 @@
       <c r="AG1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24">
+    <row r="2" spans="1:37" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,13 +2107,13 @@
       <c r="AA2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AE2" s="6" t="s">
@@ -2148,246 +2125,287 @@
       <c r="AG2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:37" ht="23.25" customHeight="1">
+      <c r="A3" s="8">
         <f>鋼床鈑!A3</f>
-      </c>
-      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>314300</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>126904.841</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>37916.5124</v>
       </c>
-      <c r="H3" s="12">
-        <v>272446027428.667</v>
-      </c>
-      <c r="I3" s="12">
-        <v>344686041867.968</v>
-      </c>
-      <c r="J3" s="12">
-        <v>1222335947709.11</v>
-      </c>
-      <c r="K3" s="12">
-        <v>3998.5103</v>
-      </c>
-      <c r="L3" s="12">
-        <v>4001.4897</v>
-      </c>
-      <c r="M3" s="12">
-        <v>823.0769</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="H3" s="11">
+        <v>272446027428.66699</v>
+      </c>
+      <c r="I3" s="11">
+        <v>344686041867.96802</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1222335947709.1101</v>
+      </c>
+      <c r="K3" s="11">
+        <v>3998.5102999999999</v>
+      </c>
+      <c r="L3" s="11">
+        <v>4001.4897000000001</v>
+      </c>
+      <c r="M3" s="11">
+        <v>823.07690000000002</v>
+      </c>
+      <c r="N3" s="11">
         <v>1703.9231</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>0</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>28886</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>20700</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="12">
         <f>(鋼床鈑!F3+鋼床鈑!N3+鋼床鈑!O3)*鋼床鈑!L3+(鋼床鈑!I3+鋼床鈑!N3+鋼床鈑!O3)*鋼床鈑!M3</f>
-      </c>
-      <c r="T3" s="13">
+        <v>86940</v>
+      </c>
+      <c r="T3" s="12">
         <f>(鋼床鈑!K3)*鋼床鈑!N3+(鋼床鈑!K3)*鋼床鈑!O3</f>
-      </c>
-      <c r="U3" s="13">
+        <v>50000</v>
+      </c>
+      <c r="U3" s="12">
         <f>4*((鋼床鈑!I3+鋼床鈑!N3/2+鋼床鈑!O3/2)*(鋼床鈑!K3+鋼床鈑!L3/2+鋼床鈑!M3/2))^2/((鋼床鈑!F3+鋼床鈑!N3/2+鋼床鈑!O3/2)/鋼床鈑!L3+(鋼床鈑!I3+鋼床鈑!N3/2+鋼床鈑!O3/2)/鋼床鈑!M3+(鋼床鈑!K3+鋼床鈑!L3/2+鋼床鈑!M3/2)/鋼床鈑!N3+(鋼床鈑!K3+鋼床鈑!L3/2+鋼床鈑!M3/2)/鋼床鈑!O3)</f>
-      </c>
-      <c r="V3" s="14">
+        <v>266002431510.86484</v>
+      </c>
+      <c r="V3" s="13">
+        <f>AH3/(L3/1000)</f>
+        <v>0.30547022217978215</v>
+      </c>
+      <c r="W3" s="13">
         <f>AH3/(K3/1000)</f>
-      </c>
-      <c r="W3" s="14">
-        <f>AH3/(L3/1000)</f>
-      </c>
-      <c r="X3" s="14">
+        <v>0.30569783644401516</v>
+      </c>
+      <c r="X3" s="13">
         <f>AI3/(M3/1000)</f>
-      </c>
-      <c r="Y3" s="14">
+        <v>0.41877744578661852</v>
+      </c>
+      <c r="Y3" s="13">
         <f>AI3/(N3/1000)</f>
-      </c>
-      <c r="Z3" s="14">
+        <v>0.20228967015469657</v>
+      </c>
+      <c r="Z3" s="13">
         <f>AH3/AD3</f>
-      </c>
-      <c r="AA3" s="14">
+        <v>3.8890739666214125</v>
+      </c>
+      <c r="AA3" s="13">
         <f>AI3/AD3</f>
-      </c>
-      <c r="AB3" s="12">
+        <v>1.0966784660132611</v>
+      </c>
+      <c r="AB3" s="11">
         <f>(M3+N3)/1000</f>
-      </c>
-      <c r="AC3" s="11">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="AC3" s="10">
         <f>(K3+L3)/1000</f>
-      </c>
-      <c r="AD3" s="12">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="11">
         <f>E3/1000^2</f>
-      </c>
-      <c r="AE3" s="14">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="AE3" s="13">
         <f>U3/(1000^4)</f>
-      </c>
-      <c r="AF3" s="14">
+        <v>0.26600243151086483</v>
+      </c>
+      <c r="AF3" s="13">
         <f>T3/1000^2</f>
-      </c>
-      <c r="AG3" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="AG3" s="13">
         <f>S3/1000^2</f>
-      </c>
-      <c r="AH3" s="12">
+        <v>8.6940000000000003E-2</v>
+      </c>
+      <c r="AH3" s="11">
         <f>J3/(1000^4)</f>
-      </c>
-      <c r="AI3" s="12">
+        <v>1.22233594770911</v>
+      </c>
+      <c r="AI3" s="11">
         <f>I3/(1000^4)</f>
-      </c>
-      <c r="AJ3" s="15">
+        <v>0.34468604186796803</v>
+      </c>
+      <c r="AJ3" s="14">
         <f>AH3</f>
-      </c>
-      <c r="AK3" s="15">
+        <v>1.22233594770911</v>
+      </c>
+      <c r="AK3" s="14">
         <f>AI3</f>
+        <v>0.34468604186796803</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:37" ht="23.25" customHeight="1">
+      <c r="A4" s="8">
         <f>鋼床鈑!A4</f>
-      </c>
-      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>385008</v>
       </c>
-      <c r="F4" s="12">
-        <v>107767.3782</v>
-      </c>
-      <c r="G4" s="12">
-        <v>88159.1293</v>
-      </c>
-      <c r="H4" s="12">
-        <v>385578006657.369</v>
-      </c>
-      <c r="I4" s="12">
-        <v>494112988461.614</v>
-      </c>
-      <c r="J4" s="12">
-        <v>695388427170.326</v>
-      </c>
-      <c r="K4" s="12">
-        <v>2424.5082</v>
-      </c>
-      <c r="L4" s="12">
-        <v>2875.4918</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="F4" s="11">
+        <v>107767.37820000001</v>
+      </c>
+      <c r="G4" s="11">
+        <v>88159.129300000001</v>
+      </c>
+      <c r="H4" s="11">
+        <v>385578006657.36902</v>
+      </c>
+      <c r="I4" s="11">
+        <v>494112988461.61401</v>
+      </c>
+      <c r="J4" s="11">
+        <v>695388427170.32605</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2424.5082000000002</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2875.4917999999998</v>
+      </c>
+      <c r="M4" s="11">
         <v>1006.5495</v>
       </c>
-      <c r="N4" s="12">
-        <v>1829.4505</v>
-      </c>
-      <c r="O4" s="11">
+      <c r="N4" s="11">
+        <v>1829.4504999999999</v>
+      </c>
+      <c r="O4" s="10">
         <v>0</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>0</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>22824</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <v>19152</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
         <f>(鋼床鈑!F4+鋼床鈑!N4+鋼床鈑!O4)*鋼床鈑!L4+(鋼床鈑!I4+鋼床鈑!N4+鋼床鈑!O4)*鋼床鈑!M4</f>
-      </c>
-      <c r="T4" s="13">
+        <v>95040</v>
+      </c>
+      <c r="T4" s="12">
         <f>(鋼床鈑!K4)*鋼床鈑!N4+(鋼床鈑!K4)*鋼床鈑!O4</f>
-      </c>
-      <c r="U4" s="13">
+        <v>112000</v>
+      </c>
+      <c r="U4" s="12">
         <f>4*((鋼床鈑!I4+鋼床鈑!N4/2+鋼床鈑!O4/2)*(鋼床鈑!K4+鋼床鈑!L4/2+鋼床鈑!M4/2))^2/((鋼床鈑!F4+鋼床鈑!N4/2+鋼床鈑!O4/2)/鋼床鈑!L4+(鋼床鈑!I4+鋼床鈑!N4/2+鋼床鈑!O4/2)/鋼床鈑!M4+(鋼床鈑!K4+鋼床鈑!L4/2+鋼床鈑!M4/2)/鋼床鈑!N4+(鋼床鈑!K4+鋼床鈑!L4/2+鋼床鈑!M4/2)/鋼床鈑!O4)</f>
-      </c>
-      <c r="V4" s="14">
+        <v>378187852471.42487</v>
+      </c>
+      <c r="V4" s="13">
+        <f>AH4/(L4/1000)</f>
+        <v>0.24183286739691834</v>
+      </c>
+      <c r="W4" s="13">
         <f>AH4/(K4/1000)</f>
-      </c>
-      <c r="W4" s="14">
-        <f>AH4/(L4/1000)</f>
-      </c>
-      <c r="X4" s="14">
+        <v>0.28681628182174268</v>
+      </c>
+      <c r="X4" s="13">
         <f>AI4/(M4/1000)</f>
-      </c>
-      <c r="Y4" s="14">
+        <v>0.49089785297356364</v>
+      </c>
+      <c r="Y4" s="13">
         <f>AI4/(N4/1000)</f>
-      </c>
-      <c r="Z4" s="14">
+        <v>0.27008819777392939</v>
+      </c>
+      <c r="Z4" s="13">
         <f>AH4/AD4</f>
-      </c>
-      <c r="AA4" s="14">
+        <v>1.8061661762101722</v>
+      </c>
+      <c r="AA4" s="13">
         <f>AI4/AD4</f>
-      </c>
-      <c r="AB4" s="12">
+        <v>1.2833836919274768</v>
+      </c>
+      <c r="AB4" s="11">
         <f>(M4+N4)/1000</f>
-      </c>
-      <c r="AC4" s="12">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="AC4" s="11">
         <f>(K4+L4)/1000</f>
-      </c>
-      <c r="AD4" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="AD4" s="11">
         <f>E4/1000^2</f>
-      </c>
-      <c r="AE4" s="14">
+        <v>0.38500800000000002</v>
+      </c>
+      <c r="AE4" s="13">
         <f>U4/(1000^4)</f>
-      </c>
-      <c r="AF4" s="14">
+        <v>0.37818785247142489</v>
+      </c>
+      <c r="AF4" s="13">
         <f>T4/1000^2</f>
-      </c>
-      <c r="AG4" s="14">
+        <v>0.112</v>
+      </c>
+      <c r="AG4" s="13">
         <f>S4/1000^2</f>
-      </c>
-      <c r="AH4" s="12">
+        <v>9.5039999999999999E-2</v>
+      </c>
+      <c r="AH4" s="11">
         <f>J4/(1000^4)</f>
-      </c>
-      <c r="AI4" s="12">
+        <v>0.69538842717032601</v>
+      </c>
+      <c r="AI4" s="11">
         <f>I4/(1000^4)</f>
-      </c>
-      <c r="AJ4" s="15">
+        <v>0.494112988461614</v>
+      </c>
+      <c r="AJ4" s="14">
         <f>AH4</f>
-      </c>
-      <c r="AK4" s="15">
+        <v>0.69538842717032601</v>
+      </c>
+      <c r="AK4" s="14">
         <f>AI4</f>
+        <v>0.494112988461614</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>